--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T12:58:08+00:00</t>
+    <t>2025-07-18T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:16:41+00:00</t>
+    <t>2025-07-18T13:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:28:33+00:00</t>
+    <t>2025-07-18T14:08:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Usager</t>
+    <t>TDDUI Patient</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:08:23+00:00</t>
+    <t>2025-07-21T08:20:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource FrCorePatientProfile permettant de de représenter un usager lorsque l'INS-NIR n'est pas transmis.</t>
+    <t>Profil de la ressource FrCorePatientProfile permettant de représenter un usager lorsque l'INS n'est pas transmis.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -13691,7 +13691,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>81</v>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5830" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="708">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:20:20+00:00</t>
+    <t>2025-07-23T13:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1132,7 +1132,7 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Hospital assigned patient identifier | IPP</t>
+    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure. Cet identifiant est obtenu par la concaténation du type d'identifiant national de personne (provenant de la nomenclature TRE_G08-TypeIdentifiantPersonne), de l'identifiant de la structure (numéro FINESS), de l'identifiant local de l’usager au sein de la structure (identifiantLocalUsagerESSMS) : 3+FINESS/identifiantLocalUsagerESSMS</t>
   </si>
   <si>
     <t>Patient.identifier:PI.id</t>
@@ -1213,48 +1213,6 @@
     <t>Patient.identifier:RRI.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:localIdentifier</t>
-  </si>
-  <si>
-    <t>localIdentifier</t>
-  </si>
-  <si>
-    <t>Identifiant local de l’usager au sein de la structure. Cet identifiant est obtenu par la concaténation du type d'identifiant national de personne (provenant de la nomenclature TRE_G08-TypeIdentifiantPersonne), de l'identifiant de la structure (numéro FINESS), de l'identifiant local de l’usager au sein de la structure (identifiantLocalUsagerESSMS) : 3+FINESS/identifiantLocalUsagerESSMS</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-identifier"/&gt;
-    &lt;code value="PLI"/&gt;
-    &lt;display value="Patient local identifier"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:localIdentifier.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier:initialNumber</t>
   </si>
   <si>
@@ -1331,7 +1289,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -1351,10 +1309,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-prefix-restriction:La civilité est limitée à Monsieur ou Madame. {prefix.empty() or (prefix = 'Monsieur' or prefix = 'Madame')}</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -1368,10 +1322,6 @@
   </si>
   <si>
     <t>usualName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
   </si>
   <si>
     <t>Name of a human | Nom utilisé</t>
@@ -1998,6 +1948,10 @@
   </si>
   <si>
     <t>Patient.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+</t>
   </si>
   <si>
     <t>Name of a human - parts and usage</t>
@@ -2594,7 +2548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO156"/>
+  <dimension ref="A1:AO147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12383,11 +12337,9 @@
         <v>390</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12402,28 +12354,32 @@
         <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>392</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O84" t="s" s="2">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="R84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12467,13 +12423,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -12482,16 +12438,16 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>256</v>
+        <v>398</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12499,10 +12455,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12510,10 +12466,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12522,19 +12478,23 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12570,43 +12530,41 @@
         <v>81</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>106</v>
+        <v>399</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12614,21 +12572,23 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D86" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12637,21 +12597,23 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12687,19 +12649,19 @@
         <v>81</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>117</v>
+        <v>399</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12711,19 +12673,19 @@
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12731,10 +12693,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12751,26 +12713,22 @@
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12779,7 +12737,7 @@
         <v>81</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>81</v>
@@ -12794,13 +12752,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12818,7 +12776,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12830,10 +12788,10 @@
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>81</v>
@@ -12842,7 +12800,7 @@
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -12850,21 +12808,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -12873,23 +12831,21 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12898,7 +12854,7 @@
         <v>81</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>81</v>
@@ -12913,46 +12869,46 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>81</v>
@@ -12961,7 +12917,7 @@
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12969,10 +12925,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12989,25 +12945,25 @@
         <v>81</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>294</v>
+        <v>422</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -13017,10 +12973,10 @@
         <v>81</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>81</v>
@@ -13032,13 +12988,13 @@
         <v>81</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -13056,7 +13012,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>297</v>
+        <v>425</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13071,7 +13027,7 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>81</v>
@@ -13080,7 +13036,7 @@
         <v>81</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>81</v>
@@ -13088,10 +13044,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>301</v>
+        <v>429</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13099,7 +13055,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>89</v>
@@ -13117,15 +13073,17 @@
         <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -13137,7 +13095,7 @@
         <v>81</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>81</v>
@@ -13173,7 +13131,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>306</v>
+        <v>434</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13188,7 +13146,7 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>307</v>
+        <v>435</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>81</v>
@@ -13197,7 +13155,7 @@
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>308</v>
+        <v>436</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>81</v>
@@ -13205,14 +13163,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13231,15 +13189,17 @@
         <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>312</v>
+        <v>440</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>81</v>
@@ -13288,7 +13248,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>314</v>
+        <v>443</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13303,7 +13263,7 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>81</v>
@@ -13312,7 +13272,7 @@
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>316</v>
+        <v>445</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>81</v>
@@ -13320,21 +13280,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -13346,16 +13306,16 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>321</v>
+        <v>450</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13405,13 +13365,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>323</v>
+        <v>452</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -13420,7 +13380,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>81</v>
@@ -13429,7 +13389,7 @@
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
@@ -13437,10 +13397,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13451,38 +13411,32 @@
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q93" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
         <v>81</v>
       </c>
@@ -13526,13 +13480,13 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>81</v>
@@ -13541,16 +13495,16 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>81</v>
@@ -13558,10 +13512,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13569,7 +13523,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
@@ -13584,20 +13538,16 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>412</v>
+        <v>103</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13633,17 +13583,19 @@
         <v>81</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13655,19 +13607,19 @@
         <v>81</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>418</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>81</v>
@@ -13675,14 +13627,12 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13703,19 +13653,17 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>424</v>
+        <v>311</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
@@ -13764,13 +13712,13 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>81</v>
@@ -13779,16 +13727,16 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>81</v>
@@ -13796,18 +13744,20 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>89</v>
@@ -13819,19 +13769,23 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13879,31 +13833,31 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>106</v>
+        <v>399</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>81</v>
@@ -13911,21 +13865,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>81</v>
@@ -13937,17 +13891,15 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>81</v>
@@ -13984,31 +13936,31 @@
         <v>81</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>107</v>
@@ -14028,46 +13980,44 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>433</v>
+        <v>111</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>434</v>
+        <v>112</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>81</v>
       </c>
@@ -14076,7 +14026,7 @@
         <v>81</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>81</v>
@@ -14091,46 +14041,46 @@
         <v>81</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>439</v>
+        <v>117</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>81</v>
@@ -14139,7 +14089,7 @@
         <v>81</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>81</v>
@@ -14147,12 +14097,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14170,23 +14122,19 @@
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14234,22 +14182,22 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>448</v>
+        <v>117</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>81</v>
@@ -14258,7 +14206,7 @@
         <v>81</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>81</v>
@@ -14266,18 +14214,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>89</v>
@@ -14286,24 +14234,26 @@
         <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14312,7 +14262,7 @@
         <v>81</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>81</v>
@@ -14327,13 +14277,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14351,7 +14301,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14366,7 +14316,7 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>81</v>
@@ -14375,7 +14325,7 @@
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>81</v>
@@ -14383,21 +14333,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>81</v>
@@ -14412,15 +14362,17 @@
         <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>81</v>
       </c>
@@ -14468,13 +14420,13 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>81</v>
@@ -14483,7 +14435,7 @@
         <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>81</v>
@@ -14492,7 +14444,7 @@
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -14500,21 +14452,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14529,12 +14481,14 @@
         <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14583,13 +14537,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14598,7 +14552,7 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>81</v>
@@ -14607,7 +14561,7 @@
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14615,18 +14569,18 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -14644,12 +14598,14 @@
         <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -14698,7 +14654,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14713,7 +14669,7 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>81</v>
@@ -14722,7 +14678,7 @@
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -14730,10 +14686,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14744,7 +14700,7 @@
         <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>81</v>
@@ -14756,18 +14712,16 @@
         <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>487</v>
-      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14815,13 +14769,13 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>81</v>
@@ -14830,7 +14784,7 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>81</v>
@@ -14839,7 +14793,7 @@
         <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>81</v>
@@ -14847,23 +14801,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>81</v>
@@ -14875,20 +14827,16 @@
         <v>90</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>424</v>
+        <v>103</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>81</v>
       </c>
@@ -14936,7 +14884,7 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14951,16 +14899,16 @@
         <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>81</v>
@@ -14968,10 +14916,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14991,19 +14939,21 @@
         <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>104</v>
+        <v>471</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>81</v>
       </c>
@@ -15051,7 +15001,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15063,10 +15013,10 @@
         <v>81</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>107</v>
+        <v>475</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>81</v>
@@ -15075,7 +15025,7 @@
         <v>81</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>81</v>
@@ -15083,14 +15033,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15109,18 +15059,20 @@
         <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>111</v>
+        <v>497</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>112</v>
+        <v>498</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>81</v>
       </c>
@@ -15156,19 +15108,19 @@
         <v>81</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>117</v>
+        <v>495</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15177,13 +15129,13 @@
         <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>118</v>
+        <v>501</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>107</v>
+        <v>502</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>81</v>
@@ -15192,7 +15144,7 @@
         <v>81</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>81</v>
@@ -15200,14 +15152,12 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15225,19 +15175,23 @@
         <v>81</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>499</v>
+        <v>169</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15261,13 +15215,11 @@
         <v>81</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>81</v>
@@ -15285,31 +15237,31 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>117</v>
+        <v>504</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -15317,10 +15269,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15328,7 +15280,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>89</v>
@@ -15337,25 +15289,25 @@
         <v>81</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>169</v>
+        <v>514</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15365,7 +15317,7 @@
         <v>81</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>81</v>
@@ -15380,13 +15332,13 @@
         <v>81</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>81</v>
@@ -15404,7 +15356,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15419,27 +15371,27 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15459,23 +15411,19 @@
         <v>81</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>81</v>
       </c>
@@ -15523,7 +15471,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>448</v>
+        <v>106</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15535,10 +15483,10 @@
         <v>81</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>81</v>
@@ -15547,7 +15495,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15555,21 +15503,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>81</v>
@@ -15578,20 +15526,18 @@
         <v>81</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15628,34 +15574,32 @@
         <v>81</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC111" s="2"/>
       <c r="AD111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>457</v>
+        <v>117</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>81</v>
@@ -15664,7 +15608,7 @@
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15672,21 +15616,23 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="D112" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>81</v>
@@ -15695,20 +15641,18 @@
         <v>81</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -15757,7 +15701,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>466</v>
+        <v>117</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15766,13 +15710,13 @@
         <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>81</v>
@@ -15781,7 +15725,7 @@
         <v>81</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>81</v>
@@ -15789,10 +15733,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15803,7 +15747,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>81</v>
@@ -15812,16 +15756,16 @@
         <v>81</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>103</v>
+        <v>514</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15872,22 +15816,22 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>81</v>
@@ -15896,7 +15840,7 @@
         <v>81</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>81</v>
@@ -15904,10 +15848,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15918,28 +15862,32 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>103</v>
+        <v>537</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>81</v>
       </c>
@@ -15987,13 +15935,13 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>81</v>
@@ -16002,16 +15950,16 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>81</v>
@@ -16019,10 +15967,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16033,7 +15981,7 @@
         <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>81</v>
@@ -16042,20 +15990,22 @@
         <v>81</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>485</v>
+        <v>236</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O115" t="s" s="2">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>81</v>
@@ -16104,22 +16054,22 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>489</v>
+        <v>240</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>81</v>
@@ -16128,7 +16078,7 @@
         <v>81</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>490</v>
+        <v>241</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>81</v>
@@ -16136,10 +16086,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16150,7 +16100,7 @@
         <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>81</v>
@@ -16162,19 +16112,17 @@
         <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>510</v>
+        <v>279</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
@@ -16199,13 +16147,11 @@
         <v>81</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y116" s="2"/>
       <c r="Z116" t="s" s="2">
-        <v>81</v>
+        <v>550</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>81</v>
@@ -16223,31 +16169,31 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>515</v>
+        <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>81</v>
+        <v>552</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>81</v>
@@ -16255,10 +16201,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16278,22 +16224,22 @@
         <v>81</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>169</v>
+        <v>555</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16318,11 +16264,13 @@
         <v>81</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Y117" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z117" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>81</v>
@@ -16340,7 +16288,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16355,16 +16303,16 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>525</v>
+        <v>107</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>81</v>
@@ -16372,10 +16320,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16386,7 +16334,7 @@
         <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>81</v>
@@ -16395,22 +16343,22 @@
         <v>81</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>81</v>
@@ -16459,13 +16407,13 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>81</v>
@@ -16474,27 +16422,27 @@
         <v>101</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>534</v>
+        <v>107</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16505,7 +16453,7 @@
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>81</v>
@@ -16517,16 +16465,20 @@
         <v>81</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>103</v>
+        <v>571</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>81</v>
       </c>
@@ -16574,25 +16526,25 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>106</v>
+        <v>570</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>81</v>
@@ -16606,10 +16558,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16617,10 +16569,10 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>81</v>
@@ -16632,13 +16584,13 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16677,32 +16629,34 @@
         <v>81</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC120" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>81</v>
@@ -16719,23 +16673,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>81</v>
@@ -16747,13 +16699,13 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>543</v>
+        <v>110</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>544</v>
+        <v>194</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>545</v>
+        <v>195</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16792,16 +16744,14 @@
         <v>81</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC121" s="2"/>
       <c r="AD121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>117</v>
@@ -16813,7 +16763,7 @@
         <v>80</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>118</v>
@@ -16836,12 +16786,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="D122" t="s" s="2">
         <v>81</v>
       </c>
@@ -16862,13 +16814,13 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16919,19 +16871,19 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>549</v>
+        <v>117</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>81</v>
@@ -16951,12 +16903,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D123" t="s" s="2">
         <v>81</v>
       </c>
@@ -16971,26 +16925,22 @@
         <v>81</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>81</v>
       </c>
@@ -17038,31 +16988,31 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>550</v>
+        <v>117</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>81</v>
@@ -17070,14 +17020,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17090,25 +17040,25 @@
         <v>81</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>236</v>
+        <v>592</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>237</v>
+        <v>593</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>559</v>
+        <v>245</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>81</v>
@@ -17157,7 +17107,7 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17166,13 +17116,13 @@
         <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>81</v>
@@ -17181,7 +17131,7 @@
         <v>81</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>81</v>
@@ -17189,10 +17139,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17203,7 +17153,7 @@
         <v>79</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>81</v>
@@ -17218,14 +17168,14 @@
         <v>279</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>81</v>
@@ -17252,33 +17202,33 @@
       <c r="X125" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y125" s="2"/>
+      <c r="Y125" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="Z125" t="s" s="2">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="AC125" s="2"/>
       <c r="AD125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>81</v>
@@ -17287,16 +17237,16 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>566</v>
+        <v>107</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>81</v>
@@ -17304,12 +17254,14 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="D126" t="s" s="2">
         <v>81</v>
       </c>
@@ -17330,19 +17282,17 @@
         <v>81</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>569</v>
+        <v>279</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>81</v>
@@ -17367,13 +17317,11 @@
         <v>81</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y126" s="2"/>
       <c r="Z126" t="s" s="2">
-        <v>81</v>
+        <v>607</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>81</v>
@@ -17391,13 +17339,13 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>81</v>
@@ -17406,7 +17354,7 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>107</v>
@@ -17415,7 +17363,7 @@
         <v>81</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17423,12 +17371,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="D127" t="s" s="2">
         <v>81</v>
       </c>
@@ -17437,7 +17387,7 @@
         <v>79</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>81</v>
@@ -17449,19 +17399,17 @@
         <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>577</v>
+        <v>279</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>81</v>
@@ -17486,13 +17434,11 @@
         <v>81</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y127" s="2"/>
       <c r="Z127" t="s" s="2">
-        <v>81</v>
+        <v>611</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>81</v>
@@ -17510,7 +17456,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17525,7 +17471,7 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>107</v>
@@ -17534,7 +17480,7 @@
         <v>81</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>81</v>
@@ -17542,10 +17488,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17556,7 +17502,7 @@
         <v>79</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>81</v>
@@ -17568,19 +17514,19 @@
         <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>81</v>
@@ -17629,31 +17575,31 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>590</v>
+        <v>101</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>81</v>
+        <v>619</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>81</v>
@@ -17661,10 +17607,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17675,7 +17621,7 @@
         <v>79</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>81</v>
@@ -17687,16 +17633,20 @@
         <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>103</v>
+        <v>496</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>104</v>
+        <v>497</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>81</v>
       </c>
@@ -17744,22 +17694,22 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>107</v>
+        <v>502</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>81</v>
@@ -17768,7 +17718,7 @@
         <v>81</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>81</v>
@@ -17776,10 +17726,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17790,7 +17740,7 @@
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>81</v>
@@ -17802,16 +17752,18 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>110</v>
+        <v>623</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>194</v>
+        <v>624</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>195</v>
+        <v>625</v>
       </c>
       <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>81</v>
       </c>
@@ -17847,41 +17799,43 @@
         <v>81</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC130" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>117</v>
+        <v>622</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>81</v>
+        <v>628</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>81</v>
@@ -17889,14 +17843,12 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
         <v>81</v>
       </c>
@@ -17917,16 +17869,18 @@
         <v>81</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>596</v>
+        <v>169</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>81</v>
       </c>
@@ -17950,13 +17904,13 @@
         <v>81</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>81</v>
+        <v>633</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>81</v>
+        <v>634</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>81</v>
@@ -17974,31 +17928,31 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>117</v>
+        <v>629</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>81</v>
+        <v>635</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>81</v>
@@ -18006,14 +17960,12 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
         <v>81</v>
       </c>
@@ -18034,16 +17986,18 @@
         <v>81</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>601</v>
+        <v>319</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>81</v>
       </c>
@@ -18091,31 +18045,31 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>117</v>
+        <v>636</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>202</v>
+        <v>640</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>81</v>
+        <v>641</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>81</v>
+        <v>642</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>81</v>
@@ -18123,46 +18077,42 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>605</v>
+        <v>81</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>81</v>
       </c>
@@ -18210,25 +18160,25 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>192</v>
+        <v>646</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>81</v>
@@ -18242,10 +18192,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18268,17 +18218,19 @@
         <v>81</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>279</v>
+        <v>571</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="O134" t="s" s="2">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>81</v>
@@ -18303,29 +18255,31 @@
         <v>81</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>613</v>
+        <v>81</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>614</v>
+        <v>81</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AC134" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18340,16 +18294,16 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>107</v>
+        <v>653</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>617</v>
+        <v>81</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>81</v>
@@ -18357,14 +18311,12 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
         <v>81</v>
       </c>
@@ -18385,18 +18337,16 @@
         <v>81</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>620</v>
+        <v>104</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>611</v>
+        <v>105</v>
       </c>
       <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>612</v>
-      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>81</v>
       </c>
@@ -18420,11 +18370,13 @@
         <v>81</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y135" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z135" t="s" s="2">
-        <v>621</v>
+        <v>81</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>81</v>
@@ -18442,31 +18394,31 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>609</v>
+        <v>106</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>616</v>
+        <v>107</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>617</v>
+        <v>81</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>81</v>
@@ -18474,23 +18426,21 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>81</v>
@@ -18502,18 +18452,18 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>624</v>
+        <v>111</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>81</v>
       </c>
@@ -18537,11 +18487,13 @@
         <v>81</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y136" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z136" t="s" s="2">
-        <v>625</v>
+        <v>81</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>81</v>
@@ -18559,7 +18511,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18571,19 +18523,19 @@
         <v>81</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>616</v>
+        <v>107</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>617</v>
+        <v>81</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>81</v>
@@ -18591,45 +18543,45 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>629</v>
+        <v>113</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>630</v>
+        <v>245</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>81</v>
@@ -18678,22 +18630,22 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>631</v>
+        <v>192</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>81</v>
@@ -18702,7 +18654,7 @@
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>632</v>
+        <v>81</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>81</v>
@@ -18710,10 +18662,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18721,10 +18673,10 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>81</v>
@@ -18736,19 +18688,19 @@
         <v>81</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>510</v>
+        <v>279</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>511</v>
+        <v>658</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>514</v>
+        <v>661</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -18773,13 +18725,13 @@
         <v>81</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>81</v>
@@ -18797,31 +18749,31 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>515</v>
+        <v>101</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>516</v>
+        <v>662</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>81</v>
+        <v>663</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>517</v>
+        <v>664</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>81</v>
@@ -18829,10 +18781,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18855,17 +18807,19 @@
         <v>81</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>636</v>
+        <v>391</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="O139" t="s" s="2">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -18914,7 +18868,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18929,16 +18883,16 @@
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>81</v>
@@ -18946,21 +18900,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>81</v>
+        <v>674</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>81</v>
@@ -18972,18 +18926,18 @@
         <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>169</v>
+        <v>675</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>81</v>
       </c>
@@ -19007,13 +18961,13 @@
         <v>81</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>646</v>
+        <v>81</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>647</v>
+        <v>81</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>81</v>
@@ -19031,13 +18985,13 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>81</v>
@@ -19046,7 +19000,7 @@
         <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>107</v>
@@ -19055,7 +19009,7 @@
         <v>81</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>81</v>
@@ -19063,10 +19017,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19086,20 +19040,22 @@
         <v>81</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>319</v>
+        <v>682</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="O141" t="s" s="2">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>81</v>
@@ -19148,7 +19104,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19157,22 +19113,22 @@
         <v>89</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>653</v>
+        <v>81</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>107</v>
+        <v>687</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>655</v>
+        <v>81</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>81</v>
@@ -19180,10 +19136,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19194,28 +19150,32 @@
         <v>79</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>311</v>
+        <v>571</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="P142" t="s" s="2">
         <v>81</v>
       </c>
@@ -19263,13 +19223,13 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>81</v>
@@ -19278,7 +19238,7 @@
         <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>107</v>
@@ -19295,10 +19255,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19309,7 +19269,7 @@
         <v>79</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>81</v>
@@ -19321,20 +19281,16 @@
         <v>81</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>585</v>
+        <v>103</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>661</v>
+        <v>104</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>81</v>
       </c>
@@ -19382,25 +19338,25 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>660</v>
+        <v>106</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>665</v>
+        <v>107</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>666</v>
+        <v>81</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>81</v>
@@ -19414,21 +19370,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>81</v>
@@ -19440,15 +19396,17 @@
         <v>81</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -19497,19 +19455,19 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>107</v>
@@ -19529,14 +19487,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>109</v>
+        <v>591</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -19549,24 +19507,26 @@
         <v>81</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>112</v>
+        <v>593</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P145" t="s" s="2">
         <v>81</v>
       </c>
@@ -19614,7 +19574,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>117</v>
+        <v>594</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19629,7 +19589,7 @@
         <v>118</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>81</v>
@@ -19646,46 +19606,44 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>605</v>
+        <v>81</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>110</v>
+        <v>698</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>606</v>
+        <v>699</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>607</v>
+        <v>700</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>81</v>
       </c>
@@ -19733,31 +19691,31 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>608</v>
+        <v>697</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>81</v>
+        <v>702</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -19765,10 +19723,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19788,23 +19746,19 @@
         <v>81</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>674</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>81</v>
       </c>
@@ -19828,13 +19782,13 @@
         <v>81</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>174</v>
+        <v>705</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>175</v>
+        <v>706</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>81</v>
@@ -19852,7 +19806,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>89</v>
@@ -19867,1075 +19821,18 @@
         <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>676</v>
+        <v>107</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>677</v>
+        <v>81</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="P151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q151" s="2"/>
-      <c r="R151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q152" s="2"/>
-      <c r="R152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O153" s="2"/>
-      <c r="P153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q153" s="2"/>
-      <c r="R153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO153" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q154" s="2"/>
-      <c r="R154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO154" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q155" s="2"/>
-      <c r="R155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AO155" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q156" s="2"/>
-      <c r="R156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO156" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:14:15+00:00</t>
+    <t>2025-07-24T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:40:01+00:00</t>
+    <t>2025-07-24T14:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1213,25 +1213,25 @@
     <t>Patient.identifier:RRI.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber</t>
-  </si>
-  <si>
-    <t>initialNumber</t>
+    <t>Patient.identifier:InitialNumbeMDPH</t>
+  </si>
+  <si>
+    <t>InitialNumbeMDPH</t>
   </si>
   <si>
     <t>Numéro de l’individu attribué par la MDPH ayant créé le dossier Individu (= MDPH initiale).</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.type</t>
+    <t>Patient.identifier:InitialNumbeMDPH.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1243,16 +1243,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.assigner</t>
+    <t>Patient.identifier:InitialNumbeMDPH.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:41:36+00:00</t>
+    <t>2025-07-25T06:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1213,25 +1213,25 @@
     <t>Patient.identifier:RRI.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:InitialNumbeMDPH</t>
-  </si>
-  <si>
-    <t>InitialNumbeMDPH</t>
+    <t>Patient.identifier:InitialNumberMDPH</t>
+  </si>
+  <si>
+    <t>InitialNumberMDPH</t>
   </si>
   <si>
     <t>Numéro de l’individu attribué par la MDPH ayant créé le dossier Individu (= MDPH initiale).</t>
   </si>
   <si>
-    <t>Patient.identifier:InitialNumbeMDPH.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.type</t>
+    <t>Patient.identifier:InitialNumberMDPH.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1243,16 +1243,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Patient.identifier:InitialNumbeMDPH.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:InitialNumbeMDPH.assigner</t>
+    <t>Patient.identifier:InitialNumberMDPH.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumberMDPH.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T06:57:33+00:00</t>
+    <t>2025-07-28T14:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:46:36+00:00</t>
+    <t>2025-07-28T15:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9179,7 +9179,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
